--- a/GameJam-wy2023/Plugins/LuBan/Configs/Datas/__enums__.xlsx
+++ b/GameJam-wy2023/Plugins/LuBan/Configs/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22782" windowHeight="12257"/>
+    <workbookView windowWidth="22782" windowHeight="12608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>信函</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>宝石</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1424,7 +1430,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1"/>
+    <row r="21" customFormat="1" spans="7:9">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
